--- a/documents/vocabulary.xlsx
+++ b/documents/vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulRobson\Projects\z80-color-forth\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECBB89F-90DF-431D-BFDA-6EADAD5C0A5D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A68DDE4-93C0-4E47-90B7-8C602BDC313E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{EC25C19A-7E91-44EA-B956-6DF31887BF8C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -45,33 +45,9 @@
     <t>Function</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve"> / </t>
-  </si>
-  <si>
-    <t>mod</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /mod </t>
-  </si>
-  <si>
-    <t>s1 = s1 * s2</t>
-  </si>
-  <si>
-    <t>s1 = s2 / s1</t>
-  </si>
-  <si>
-    <t>s1 = s2 % s1</t>
-  </si>
-  <si>
-    <t>s1 = s2 / s1 ; s2 = s2 % s1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + </t>
   </si>
   <si>
@@ -295,12 +271,6 @@
   </si>
   <si>
     <t>Stop running</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>Compile Break</t>
   </si>
   <si>
     <t>2,</t>
@@ -701,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CE7CD5-823B-4DED-ADE1-D05491BBB4C7}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -731,227 +701,233 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,129 +935,132 @@
         <v>80</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
         <v>81</v>
       </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,344 +1068,262 @@
         <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
       </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>30</v>
+      <c r="A25" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>53</v>
+      <c r="A35" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H44">
-    <sortCondition ref="A2:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H39">
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A25" r:id="rId1" xr:uid="{36702779-380D-45C9-BD31-6EA5913E1EBB}"/>
-    <hyperlink ref="A40" r:id="rId2" xr:uid="{BDCDB3C2-D378-4214-B2D7-0FA0E6769441}"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{36702779-380D-45C9-BD31-6EA5913E1EBB}"/>
+    <hyperlink ref="A35" r:id="rId2" xr:uid="{BDCDB3C2-D378-4214-B2D7-0FA0E6769441}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
